--- a/Sax/Final_code_test/Evaluation/Eval.xlsx
+++ b/Sax/Final_code_test/Evaluation/Eval.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Megatron\Thesis\Thesis_Work\Sax\Final_code_test\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A748A3-D0B1-430D-844F-22C001055CBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCF0504-8A3F-4011-B85A-60F58010E5EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{BB6AE130-32EB-4984-8DA3-623B9787B932}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{BB6AE130-32EB-4984-8DA3-623B9787B932}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="syn_data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="32">
   <si>
     <t>Method</t>
   </si>
@@ -99,6 +103,44 @@
   <si>
     <t xml:space="preserve">0
 </t>
+  </si>
+  <si>
+    <t>25
+(Win_size * 0.5)</t>
+  </si>
+  <si>
+    <t>False Pos</t>
+  </si>
+  <si>
+    <t>True Neg</t>
+  </si>
+  <si>
+    <t>True Pos</t>
+  </si>
+  <si>
+    <t>False Neg</t>
+  </si>
+  <si>
+    <t>5
+(win_size * 0.1)</t>
+  </si>
+  <si>
+    <t>260+</t>
+  </si>
+  <si>
+    <t>8000+</t>
+  </si>
+  <si>
+    <t>150+</t>
+  </si>
+  <si>
+    <t>20/152</t>
+  </si>
+  <si>
+    <t>20/1624</t>
+  </si>
+  <si>
+    <t>200+</t>
   </si>
 </sst>
 </file>
@@ -180,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,6 +275,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -241,7 +305,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,6 +355,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -612,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03402925-20D8-40D4-A585-496357FD502D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +738,7 @@
         <v>26.87</v>
       </c>
       <c r="D3" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -1043,4 +1119,1451 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4F1406-BD7C-499B-8F33-08931467E172}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>25.47</v>
+      </c>
+      <c r="D3" s="7">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>300</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>55.61</v>
+      </c>
+      <c r="D4" s="7">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>300</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="D5" s="7">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>300</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>141.81</v>
+      </c>
+      <c r="D7" s="3">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>300</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>232.59</v>
+      </c>
+      <c r="D8" s="3">
+        <v>153</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="D9" s="3">
+        <v>153</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="11">
+        <v>61.77</v>
+      </c>
+      <c r="D11" s="11">
+        <v>40</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>300</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="11">
+        <v>100.53</v>
+      </c>
+      <c r="D12" s="11">
+        <v>66</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="D13" s="11">
+        <v>66</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11">
+        <v>300</v>
+      </c>
+      <c r="G13" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1828.17</v>
+      </c>
+      <c r="D15" s="15">
+        <v>990</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>300</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1918.5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>990</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="15">
+        <v>300</v>
+      </c>
+      <c r="G16" s="15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D17" s="15">
+        <v>990</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="15">
+        <v>300</v>
+      </c>
+      <c r="G17" s="15">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBB6532-B79B-4FBF-A684-5E4385C2E7BF}">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4.45</v>
+      </c>
+      <c r="D3" s="7">
+        <v>67</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9">
+        <v>20</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="D4" s="7">
+        <v>171</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>20</v>
+      </c>
+      <c r="I4" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>171</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>50</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9.41</v>
+      </c>
+      <c r="D8" s="3">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="22">
+        <v>17</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35.56</v>
+      </c>
+      <c r="D9" s="3">
+        <v>703</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3">
+        <v>25</v>
+      </c>
+      <c r="H9" s="6">
+        <v>20</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.93</v>
+      </c>
+      <c r="D10" s="3">
+        <v>703</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="15">
+        <v>92.5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1624</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>50</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="15">
+        <v>887.26</v>
+      </c>
+      <c r="D14" s="15">
+        <v>17955</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="15">
+        <v>50</v>
+      </c>
+      <c r="G14" s="15">
+        <v>5</v>
+      </c>
+      <c r="H14" s="18">
+        <v>20</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="15">
+        <v>110.02</v>
+      </c>
+      <c r="D15" s="15">
+        <v>17955</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="11">
+        <v>61.77</v>
+      </c>
+      <c r="D54" s="11">
+        <v>40</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>300</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C55" s="11">
+        <v>100.53</v>
+      </c>
+      <c r="D55" s="11">
+        <v>66</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="11">
+        <v>300</v>
+      </c>
+      <c r="G55" s="11">
+        <v>240</v>
+      </c>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="D56" s="11">
+        <v>66</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="11">
+        <v>300</v>
+      </c>
+      <c r="G56" s="11">
+        <v>240</v>
+      </c>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441FD4DA-5B65-42A8-A3A2-23D19C8E14A0}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>750</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>900</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>525</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>425</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>925</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>600</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>550</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>450</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>575</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>450</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>600</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>550</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>125</v>
+      </c>
+      <c r="B17">
+        <v>625</v>
+      </c>
+      <c r="D17">
+        <v>125</v>
+      </c>
+      <c r="E17">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>650</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>150</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>150</v>
+      </c>
+      <c r="B20">
+        <v>700</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>675</v>
+      </c>
+      <c r="D21">
+        <v>175</v>
+      </c>
+      <c r="E21">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <v>700</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23">
+        <v>650</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>225</v>
+      </c>
+      <c r="B24">
+        <v>725</v>
+      </c>
+      <c r="D24">
+        <v>225</v>
+      </c>
+      <c r="E24">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+      <c r="D25">
+        <v>250</v>
+      </c>
+      <c r="E25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <v>500</v>
+      </c>
+      <c r="D26">
+        <v>250</v>
+      </c>
+      <c r="E26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <v>750</v>
+      </c>
+      <c r="D27">
+        <v>250</v>
+      </c>
+      <c r="E27">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>900</v>
+      </c>
+      <c r="D28">
+        <v>250</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>275</v>
+      </c>
+      <c r="B29">
+        <v>775</v>
+      </c>
+      <c r="D29">
+        <v>275</v>
+      </c>
+      <c r="E29">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30">
+        <v>850</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="E30">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <v>350</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>800</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="E32">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>325</v>
+      </c>
+      <c r="B33">
+        <v>825</v>
+      </c>
+      <c r="D33">
+        <v>325</v>
+      </c>
+      <c r="E33">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>350</v>
+      </c>
+      <c r="B34">
+        <v>800</v>
+      </c>
+      <c r="D34">
+        <v>350</v>
+      </c>
+      <c r="E34">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>350</v>
+      </c>
+      <c r="B35">
+        <v>850</v>
+      </c>
+      <c r="D35">
+        <v>350</v>
+      </c>
+      <c r="E35">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>375</v>
+      </c>
+      <c r="B36">
+        <v>875</v>
+      </c>
+      <c r="D36">
+        <v>375</v>
+      </c>
+      <c r="E36">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>400</v>
+      </c>
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="D37">
+        <v>400</v>
+      </c>
+      <c r="E37">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38">
+        <v>750</v>
+      </c>
+      <c r="D38">
+        <v>400</v>
+      </c>
+      <c r="E38">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>400</v>
+      </c>
+      <c r="B39">
+        <v>900</v>
+      </c>
+      <c r="D39">
+        <v>400</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>425</v>
+      </c>
+      <c r="B40">
+        <v>525</v>
+      </c>
+      <c r="D40">
+        <v>425</v>
+      </c>
+      <c r="E40">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>425</v>
+      </c>
+      <c r="B41">
+        <v>925</v>
+      </c>
+      <c r="D41">
+        <v>425</v>
+      </c>
+      <c r="E41">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>450</v>
+      </c>
+      <c r="B42">
+        <v>600</v>
+      </c>
+      <c r="D42">
+        <v>450</v>
+      </c>
+      <c r="E42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>450</v>
+      </c>
+      <c r="B43">
+        <v>550</v>
+      </c>
+      <c r="D43">
+        <v>450</v>
+      </c>
+      <c r="E43">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>500</v>
+      </c>
+      <c r="B44">
+        <v>750</v>
+      </c>
+      <c r="D44">
+        <v>500</v>
+      </c>
+      <c r="E44">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>525</v>
+      </c>
+      <c r="B45">
+        <v>925</v>
+      </c>
+      <c r="D45">
+        <v>500</v>
+      </c>
+      <c r="E45">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>550</v>
+      </c>
+      <c r="B46">
+        <v>600</v>
+      </c>
+      <c r="D46">
+        <v>525</v>
+      </c>
+      <c r="E46">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>650</v>
+      </c>
+      <c r="B47">
+        <v>700</v>
+      </c>
+      <c r="D47">
+        <v>550</v>
+      </c>
+      <c r="E47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>750</v>
+      </c>
+      <c r="B48">
+        <v>900</v>
+      </c>
+      <c r="D48">
+        <v>650</v>
+      </c>
+      <c r="E48">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>800</v>
+      </c>
+      <c r="B49">
+        <v>850</v>
+      </c>
+      <c r="D49">
+        <v>750</v>
+      </c>
+      <c r="E49">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>800</v>
+      </c>
+      <c r="E50">
+        <v>850</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B49">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EF85E7-E1AA-400D-A09A-EEC7B09193A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sax/Final_code_test/Evaluation/Eval.xlsx
+++ b/Sax/Final_code_test/Evaluation/Eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Megatron\Thesis\Thesis_Work\Sax\Final_code_test\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCF0504-8A3F-4011-B85A-60F58010E5EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B378F266-DA7B-4969-B72C-777353C1B7CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{BB6AE130-32EB-4984-8DA3-623B9787B932}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="41">
   <si>
     <t>Method</t>
   </si>
@@ -142,6 +142,33 @@
   <si>
     <t>200+</t>
   </si>
+  <si>
+    <t>PA without</t>
+  </si>
+  <si>
+    <t>PA with</t>
+  </si>
+  <si>
+    <t>y-alpha</t>
+  </si>
+  <si>
+    <t>word length</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
+  </si>
+  <si>
+    <t>Class Accuracy</t>
+  </si>
+  <si>
+    <t>Sub Class Accuracy</t>
+  </si>
+  <si>
+    <t>NORMALIZED</t>
+  </si>
+  <si>
+    <t>Dataset Size</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +248,38 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -297,6 +354,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -305,7 +371,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +433,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1126,7 +1225,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1551,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,14 +2655,1604 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EF85E7-E1AA-400D-A09A-EEC7B09193A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>100</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8.26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="25">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="25">
+        <v>6.98</v>
+      </c>
+      <c r="D9" s="25">
+        <v>35</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>100</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="25">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="25">
+        <v>7.06</v>
+      </c>
+      <c r="D10" s="25">
+        <v>35</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>100</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>4</v>
+      </c>
+      <c r="I10" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="25">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="25">
+        <v>34.74</v>
+      </c>
+      <c r="D11" s="25">
+        <v>190</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="25">
+        <v>100</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="25">
+        <v>1.53</v>
+      </c>
+      <c r="D12" s="25">
+        <v>190</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="25">
+        <v>100</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="27">
+        <v>2500</v>
+      </c>
+      <c r="C15" s="27">
+        <v>10.63</v>
+      </c>
+      <c r="D15" s="27">
+        <v>55</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>100</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27">
+        <v>4</v>
+      </c>
+      <c r="I15" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="27">
+        <v>2500</v>
+      </c>
+      <c r="C16" s="27">
+        <v>10.75</v>
+      </c>
+      <c r="D16" s="27">
+        <v>55</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>100</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>4</v>
+      </c>
+      <c r="I16" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="27">
+        <v>2500</v>
+      </c>
+      <c r="C17" s="27">
+        <v>54.34</v>
+      </c>
+      <c r="D17" s="27">
+        <v>300</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="27">
+        <v>100</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="27">
+        <v>2500</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D18" s="27">
+        <v>300</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="27">
+        <v>100</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="29">
+        <v>5000</v>
+      </c>
+      <c r="C21" s="29">
+        <v>49.81</v>
+      </c>
+      <c r="D21" s="29">
+        <v>261</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="29">
+        <v>100</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>4</v>
+      </c>
+      <c r="I21" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="29">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="29">
+        <v>51.29</v>
+      </c>
+      <c r="D22" s="29">
+        <v>261</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+      <c r="F22" s="29">
+        <v>100</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>4</v>
+      </c>
+      <c r="I22" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="29">
+        <v>5000</v>
+      </c>
+      <c r="C23" s="29">
+        <v>222.54</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1225</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="29">
+        <v>100</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="29">
+        <v>5000</v>
+      </c>
+      <c r="C24" s="29">
+        <v>8.11</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1225</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="29">
+        <v>100</v>
+      </c>
+      <c r="G24" s="29">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="31">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="31">
+        <v>201.07</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31">
+        <v>0</v>
+      </c>
+      <c r="F27" s="31">
+        <v>100</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31">
+        <v>4</v>
+      </c>
+      <c r="I27" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="31">
+        <v>10000</v>
+      </c>
+      <c r="C28" s="31">
+        <v>201.91</v>
+      </c>
+      <c r="D28" s="31">
+        <v>1065</v>
+      </c>
+      <c r="E28" s="31">
+        <v>0</v>
+      </c>
+      <c r="F28" s="31">
+        <v>100</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31">
+        <v>4</v>
+      </c>
+      <c r="I28" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="31">
+        <v>10000</v>
+      </c>
+      <c r="C29" s="31">
+        <v>893.97</v>
+      </c>
+      <c r="D29" s="31">
+        <v>4950</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="31">
+        <v>100</v>
+      </c>
+      <c r="G29" s="31">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="31">
+        <v>10000</v>
+      </c>
+      <c r="C30" s="31">
+        <v>31.16</v>
+      </c>
+      <c r="D30" s="31">
+        <v>4950</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="31">
+        <v>100</v>
+      </c>
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="F34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="8">
+        <v>4</v>
+      </c>
+      <c r="H38" s="7">
+        <v>2</v>
+      </c>
+      <c r="I38" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>35</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="7">
+        <v>6</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="25">
+        <v>4</v>
+      </c>
+      <c r="C44" s="25">
+        <v>0</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0</v>
+      </c>
+      <c r="F44" s="25">
+        <v>2</v>
+      </c>
+      <c r="G44" s="26">
+        <v>4</v>
+      </c>
+      <c r="H44" s="25">
+        <v>2</v>
+      </c>
+      <c r="I44" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="25">
+        <v>4</v>
+      </c>
+      <c r="C45" s="25">
+        <v>0</v>
+      </c>
+      <c r="D45" s="25">
+        <v>0</v>
+      </c>
+      <c r="F45" s="25">
+        <v>6</v>
+      </c>
+      <c r="G45" s="26">
+        <v>0</v>
+      </c>
+      <c r="H45" s="25">
+        <v>0</v>
+      </c>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="25">
+        <v>7</v>
+      </c>
+      <c r="C46" s="25">
+        <v>3</v>
+      </c>
+      <c r="D46" s="25">
+        <v>35</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="25">
+        <v>4</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="F47" s="25">
+        <v>6</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="27">
+        <v>3</v>
+      </c>
+      <c r="C50" s="27">
+        <v>1</v>
+      </c>
+      <c r="D50" s="27">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27">
+        <v>3</v>
+      </c>
+      <c r="G50" s="28">
+        <v>4</v>
+      </c>
+      <c r="H50" s="27">
+        <v>2</v>
+      </c>
+      <c r="I50" s="33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="27">
+        <v>3</v>
+      </c>
+      <c r="C51" s="27">
+        <v>1</v>
+      </c>
+      <c r="D51" s="27">
+        <v>1</v>
+      </c>
+      <c r="F51" s="27">
+        <v>7</v>
+      </c>
+      <c r="G51" s="28">
+        <v>0</v>
+      </c>
+      <c r="H51" s="27">
+        <v>0</v>
+      </c>
+      <c r="I51" s="33"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="27">
+        <v>16</v>
+      </c>
+      <c r="C52" s="27">
+        <v>9</v>
+      </c>
+      <c r="D52" s="27">
+        <v>275</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="33"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="27">
+        <v>4</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="F53" s="27">
+        <v>7</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="33"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="29">
+        <v>3</v>
+      </c>
+      <c r="C56" s="29">
+        <v>1</v>
+      </c>
+      <c r="D56" s="29">
+        <v>1</v>
+      </c>
+      <c r="F56" s="29">
+        <v>2</v>
+      </c>
+      <c r="G56" s="30">
+        <v>6</v>
+      </c>
+      <c r="H56" s="29">
+        <v>6</v>
+      </c>
+      <c r="I56" s="33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="29">
+        <v>3</v>
+      </c>
+      <c r="C57" s="29">
+        <v>1</v>
+      </c>
+      <c r="D57" s="29">
+        <v>1</v>
+      </c>
+      <c r="F57" s="29">
+        <v>8</v>
+      </c>
+      <c r="G57" s="30">
+        <v>0</v>
+      </c>
+      <c r="H57" s="29">
+        <v>0</v>
+      </c>
+      <c r="I57" s="33"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="29">
+        <v>25</v>
+      </c>
+      <c r="C58" s="29">
+        <v>25</v>
+      </c>
+      <c r="D58" s="29">
+        <v>1175</v>
+      </c>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="33"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="29">
+        <v>4</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="F59" s="29">
+        <v>8</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="33"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="33"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="33"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="33"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="F70" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="7">
+        <v>4</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>4</v>
+      </c>
+      <c r="G74" s="8">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="7">
+        <v>4</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>3</v>
+      </c>
+      <c r="G75" s="8">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7">
+        <v>1</v>
+      </c>
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="7">
+        <v>10</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
+        <v>35</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="33"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="7">
+        <v>4</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="F77" s="7">
+        <v>4</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="33"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="25">
+        <v>4</v>
+      </c>
+      <c r="C80" s="25">
+        <v>0</v>
+      </c>
+      <c r="D80" s="25">
+        <v>0</v>
+      </c>
+      <c r="F80" s="25">
+        <v>2</v>
+      </c>
+      <c r="G80" s="26">
+        <v>4</v>
+      </c>
+      <c r="H80" s="25">
+        <v>2</v>
+      </c>
+      <c r="I80" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="25">
+        <v>4</v>
+      </c>
+      <c r="C81" s="25">
+        <v>0</v>
+      </c>
+      <c r="D81" s="25">
+        <v>0</v>
+      </c>
+      <c r="F81" s="25">
+        <v>1</v>
+      </c>
+      <c r="G81" s="26">
+        <v>3</v>
+      </c>
+      <c r="H81" s="25">
+        <v>3</v>
+      </c>
+      <c r="I81" s="33"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="25">
+        <v>14</v>
+      </c>
+      <c r="C82" s="25">
+        <v>6</v>
+      </c>
+      <c r="D82" s="25">
+        <v>170</v>
+      </c>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="33"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="25">
+        <v>4</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="F83" s="25">
+        <v>4</v>
+      </c>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="33"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="27">
+        <v>4</v>
+      </c>
+      <c r="C86" s="27">
+        <v>0</v>
+      </c>
+      <c r="D86" s="27">
+        <v>5</v>
+      </c>
+      <c r="F86" s="27">
+        <v>4</v>
+      </c>
+      <c r="G86" s="28">
+        <v>0</v>
+      </c>
+      <c r="H86" s="27">
+        <v>0</v>
+      </c>
+      <c r="I86" s="33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="27">
+        <v>4</v>
+      </c>
+      <c r="C87" s="27">
+        <v>0</v>
+      </c>
+      <c r="D87" s="27">
+        <v>5</v>
+      </c>
+      <c r="F87" s="27">
+        <v>0</v>
+      </c>
+      <c r="G87" s="28">
+        <v>4</v>
+      </c>
+      <c r="H87" s="27">
+        <v>4</v>
+      </c>
+      <c r="I87" s="33"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="27">
+        <v>15</v>
+      </c>
+      <c r="C88" s="27">
+        <v>10</v>
+      </c>
+      <c r="D88" s="27">
+        <v>275</v>
+      </c>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="33"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="27">
+        <v>4</v>
+      </c>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="F89" s="27">
+        <v>4</v>
+      </c>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="33"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="29">
+        <v>4</v>
+      </c>
+      <c r="C92" s="29">
+        <v>0</v>
+      </c>
+      <c r="D92" s="29">
+        <v>0</v>
+      </c>
+      <c r="F92" s="29">
+        <v>4</v>
+      </c>
+      <c r="G92" s="30">
+        <v>0</v>
+      </c>
+      <c r="H92" s="29">
+        <v>0</v>
+      </c>
+      <c r="I92" s="33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="29">
+        <v>4</v>
+      </c>
+      <c r="C93" s="29">
+        <v>0</v>
+      </c>
+      <c r="D93" s="29">
+        <v>0</v>
+      </c>
+      <c r="F93" s="29">
+        <v>0</v>
+      </c>
+      <c r="G93" s="30">
+        <v>4</v>
+      </c>
+      <c r="H93" s="29">
+        <v>4</v>
+      </c>
+      <c r="I93" s="33"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="29">
+        <v>25</v>
+      </c>
+      <c r="C94" s="29">
+        <v>25</v>
+      </c>
+      <c r="D94" s="29">
+        <v>1175</v>
+      </c>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="33"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="29">
+        <v>4</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="F95" s="29">
+        <v>4</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="33"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="31">
+        <v>4</v>
+      </c>
+      <c r="C98" s="31">
+        <v>0</v>
+      </c>
+      <c r="D98" s="31">
+        <v>0</v>
+      </c>
+      <c r="F98" s="31">
+        <v>4</v>
+      </c>
+      <c r="G98" s="32">
+        <v>0</v>
+      </c>
+      <c r="H98" s="31">
+        <v>0</v>
+      </c>
+      <c r="I98" s="33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="31">
+        <v>4</v>
+      </c>
+      <c r="C99" s="31">
+        <v>0</v>
+      </c>
+      <c r="D99" s="31">
+        <v>0</v>
+      </c>
+      <c r="F99" s="31">
+        <v>0</v>
+      </c>
+      <c r="G99" s="32">
+        <v>4</v>
+      </c>
+      <c r="H99" s="31">
+        <v>4</v>
+      </c>
+      <c r="I99" s="33"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="31">
+        <v>50</v>
+      </c>
+      <c r="C100" s="31">
+        <v>50</v>
+      </c>
+      <c r="D100" s="31">
+        <v>4850</v>
+      </c>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="33"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="31">
+        <v>4</v>
+      </c>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="F101" s="31">
+        <v>4</v>
+      </c>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="I98:I101"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="B70:D71"/>
+    <mergeCell ref="F70:H71"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="F34:H35"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I50:I53"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>